--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan_Andrade\Desktop\MM\TraderBot\MoneyMakerBot_OnePrime\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan_Andrade\Desktop\MMbot\MoneyMakerBot_1Prime\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31C8A3A-D71D-4596-9DE9-A9C9764AA6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A52373-2BB0-4DC2-81DC-5F910DC11281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>asset_InvestmentPercentage</t>
+  </si>
+  <si>
+    <t>MoneyMakerBot_StartWebhook</t>
+  </si>
+  <si>
+    <t>asset_StartWebhook</t>
   </si>
 </sst>
 </file>
@@ -2862,7 +2868,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2928,8 +2934,12 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan_Andrade\Desktop\MMbot\MoneyMakerBot_1Prime\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A52373-2BB0-4DC2-81DC-5F910DC11281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1567B19B-5724-4358-95AD-4BC1253BB8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -187,12 +187,6 @@
   </si>
   <si>
     <t>asset_InvestmentPercentage</t>
-  </si>
-  <si>
-    <t>MoneyMakerBot_StartWebhook</t>
-  </si>
-  <si>
-    <t>asset_StartWebhook</t>
   </si>
 </sst>
 </file>
@@ -593,7 +587,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2865,7 +2859,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z996"/>
+  <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -2934,12 +2928,8 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
@@ -2948,39 +2938,35 @@
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="2"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+    <row r="7" spans="1:26" ht="15" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="4"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -3962,7 +3948,6 @@
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
